--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Romania']</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -741,14 +741,14 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -778,7 +778,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -818,14 +818,14 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -855,7 +855,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -895,14 +895,14 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -932,7 +932,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -972,14 +972,14 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1049,14 +1049,14 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1126,14 +1126,14 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1357,14 +1357,14 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>['Turkey', 'Sweden']</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>['Turkey', 'Sweden']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1578,12 +1578,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['Romania', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1732,24 +1732,24 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1789,12 +1789,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1809,24 +1809,24 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1866,12 +1866,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Romania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1896,14 +1896,14 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic', 'Sweden', 'Portugal']</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1963,24 +1963,24 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">
         <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2040,24 +2040,24 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2097,12 +2097,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2174,12 +2174,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2194,21 +2194,21 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>8</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2328,12 +2328,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2348,17 +2348,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Iceland', 'Romania']</t>
+          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2405,12 +2405,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2425,17 +2425,17 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2482,12 +2482,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2497,22 +2497,22 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2574,22 +2574,22 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Ireland']</t>
+          <t>['Albania', 'Ireland']</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2636,12 +2636,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2651,22 +2651,22 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Ireland', 'Portugal']</t>
+          <t>['Slovakia', 'Ireland', 'Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>['Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -2708,37 +2708,37 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Slovakia', 'Ireland', 'Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Turkey', 'Switzerland']</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2785,49 +2785,49 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Switzerland', 'Ireland']</t>
         </is>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2862,37 +2862,37 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2939,37 +2939,37 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3016,37 +3016,37 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3093,37 +3093,37 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3180,39 +3180,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Austria', 'Slovakia', 'Switzerland', 'Ireland']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Austria']</t>
         </is>
       </c>
       <c r="P36" t="n">
         <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3242,12 +3242,12 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Germany', 'Russia', 'Spain', 'Ukraine']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Ukraine', 'Turkey']</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3319,12 +3319,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3334,27 +3334,27 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Germany', 'Russia', 'Spain', 'Ukraine']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Ukraine', 'Turkey']</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3411,27 +3411,27 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Germany', 'Russia', 'Spain', 'Ukraine']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Ukraine', 'Turkey']</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3473,12 +3473,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3488,27 +3488,27 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Germany', 'Russia', 'Spain', 'Ukraine']</t>
+          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Ukraine', 'Turkey']</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3560,32 +3560,32 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Spain', 'Russia']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Turkey', 'Russia']</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3637,32 +3637,32 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Spain', 'Finland']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Turkey', 'Finland']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3714,32 +3714,32 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Ireland', 'Russia', 'Portugal']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Ukraine', 'Turkey']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3791,32 +3791,32 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Spain', 'Denmark']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Denmark', 'Turkey']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3868,32 +3868,32 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Denmark', 'Spain']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Denmark']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Ukraine', 'Turkey']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="Q45" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3945,32 +3945,32 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Spain', 'Denmark']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Denmark', 'Turkey']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4022,32 +4022,32 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Spain', 'Finland']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Turkey']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4056,10 +4056,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4099,32 +4099,32 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Spain', 'Finland']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Turkey', 'Finland']</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -4166,17 +4166,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4186,22 +4186,22 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -4243,17 +4243,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -4320,17 +4320,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4340,22 +4340,22 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Croatia', 'Russia']</t>
+          <t>['Croatia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Spain', 'Switzerland']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -4397,17 +4397,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4417,22 +4417,22 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -4474,17 +4474,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4494,34 +4494,34 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Croatia', 'Russia']</t>
+          <t>['Croatia', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Spain', 'Switzerland']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['Austria', 'Croatia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P53" t="n">
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -4551,17 +4551,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4571,22 +4571,22 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Austria', 'Russia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>['Spain', 'Switzerland']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -4628,22 +4628,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4653,17 +4653,17 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56">
@@ -4705,22 +4705,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4730,17 +4730,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -4782,22 +4782,22 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4807,17 +4807,17 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -4859,22 +4859,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4884,17 +4884,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -4936,22 +4936,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4961,17 +4961,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -5013,22 +5013,22 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5038,17 +5038,17 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -5090,22 +5090,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5115,17 +5115,17 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -5167,22 +5167,22 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5192,17 +5192,17 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -5244,22 +5244,22 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5269,17 +5269,17 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -5321,22 +5321,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5346,17 +5346,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -5398,22 +5398,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5423,17 +5423,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -5475,27 +5475,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -5505,12 +5505,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5522,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5552,27 +5552,27 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -5582,12 +5582,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['Austria', 'Hungary', 'Russia', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -5629,27 +5629,27 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['Austria', 'Hungary', 'Russia', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -5706,27 +5706,27 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5736,12 +5736,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['Austria', 'Hungary', 'Russia', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -5783,27 +5783,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -5813,12 +5813,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Austria', 'Russia', 'Portugal', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -5860,27 +5860,27 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -5890,12 +5890,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['Austria', 'Hungary', 'Russia', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
@@ -5937,27 +5937,27 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -6014,27 +6014,27 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6044,12 +6044,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['Austria', 'Hungary', 'Russia', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -6091,27 +6091,27 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -6121,12 +6121,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -6173,37 +6173,37 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Czech Republic', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Scotland']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6250,37 +6250,37 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Czech Republic', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Scotland']</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6327,37 +6327,37 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Czech Republic', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Scotland']</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6404,37 +6404,37 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Germany', 'Czech Republic', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Hungary', 'Slovakia']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -6486,32 +6486,32 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Czech Republic', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Albania']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6523,7 +6523,7 @@
         <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6563,32 +6563,32 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Czech Republic']</t>
+          <t>['Germany', 'Czech Republic', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6640,32 +6640,32 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Italy']</t>
+          <t>['Germany', 'Czech Republic', 'Ukraine', 'Italy']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Hungary', 'Slovakia']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6717,32 +6717,32 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Czech Republic']</t>
+          <t>['Germany', 'Czech Republic', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Croatia', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -6784,17 +6784,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6804,22 +6804,22 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -6861,17 +6861,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6881,34 +6881,34 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Netherlands', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P84" t="n">
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -6938,17 +6938,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6958,22 +6958,22 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7035,22 +7035,22 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -7092,17 +7092,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7112,22 +7112,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Netherlands', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -7169,17 +7169,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7189,22 +7189,22 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -7246,17 +7246,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7266,22 +7266,22 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -7323,17 +7323,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Netherlands', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Slovakia', 'Croatia']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -7400,22 +7400,22 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7425,17 +7425,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Netherlands', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -7477,22 +7477,22 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7502,17 +7502,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Netherlands', 'Ukraine', 'Ukraine']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
@@ -7554,22 +7554,22 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -7579,17 +7579,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Netherlands', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -7631,27 +7631,27 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7661,12 +7661,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Netherlands', 'Slovakia', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -7708,27 +7708,27 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -7738,12 +7738,12 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Ukraine']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>['Albania', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -7785,27 +7785,27 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -7815,12 +7815,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Ukraine']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Albania', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97">
@@ -7862,27 +7862,27 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -7892,24 +7892,24 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Austria', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Georgia', 'Netherlands', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>['Albania', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98">
@@ -7939,27 +7939,27 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -7969,12 +7969,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Turkey', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Turkey', 'Ukraine']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>['Albania', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7986,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="Q98" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
@@ -8016,27 +8016,27 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -8046,24 +8046,24 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Austria', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Georgia', 'Netherlands', 'Slovakia', 'Ukraine']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Albania', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P99" t="n">
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -8100,39 +8100,39 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P100" t="n">
         <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Romania']</t>
+          <t>['Romania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -2708,37 +2708,37 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ireland', 'Portugal', 'Northern Ireland']</t>
+          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>['Turkey', 'Switzerland']</t>
+          <t>['Croatia', 'Switzerland']</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2747,10 +2747,10 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2785,49 +2785,49 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2862,37 +2862,37 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2939,37 +2939,37 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3016,37 +3016,37 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3093,37 +3093,37 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3180,36 +3180,36 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Switzerland', 'Ireland']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Austria']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>2</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3257,27 +3257,27 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3334,27 +3334,27 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3411,27 +3411,27 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3488,27 +3488,27 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3565,27 +3565,27 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Turkey', 'Russia']</t>
+          <t>['Russia', 'Croatia']</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3642,27 +3642,27 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Turkey', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3719,27 +3719,27 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Russia', 'Portugal']</t>
+          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3796,27 +3796,27 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Denmark', 'Turkey']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3873,27 +3873,27 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Denmark']</t>
+          <t>['Germany', 'Switzerland', 'Denmark', 'Spain']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Turkey']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3950,27 +3950,27 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Denmark', 'Turkey']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -4027,27 +4027,27 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Finland', 'Turkey']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4104,27 +4104,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>['Turkey', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4186,17 +4186,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4263,17 +4263,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4340,17 +4340,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4417,17 +4417,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Ireland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4494,17 +4494,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4571,17 +4571,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ireland', 'Portugal']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4653,12 +4653,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -4730,12 +4730,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Spain']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -4961,12 +4961,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -5038,12 +5038,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -5192,12 +5192,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63">
@@ -5269,12 +5269,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -5423,12 +5423,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -6173,37 +6173,37 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Ukraine', 'Finland']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Scotland']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6250,37 +6250,37 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Ukraine', 'Finland']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Scotland']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6327,37 +6327,37 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Ukraine', 'Finland']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Scotland']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6404,37 +6404,37 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Ukraine', 'Finland']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['Hungary', 'Slovakia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -6486,32 +6486,32 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Albania']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6520,7 +6520,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>2</v>
@@ -6563,32 +6563,32 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6640,32 +6640,32 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Ukraine', 'Italy']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Italy']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Hungary', 'Slovakia']</t>
+          <t>['Hungary', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6717,32 +6717,32 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -6804,22 +6804,22 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -6881,34 +6881,34 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands', 'Ukraine', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P84" t="n">
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6958,22 +6958,22 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7035,22 +7035,22 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7112,22 +7112,22 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands', 'Ukraine', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -7139,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7189,22 +7189,22 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7266,22 +7266,22 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Ukraine', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands', 'Ukraine', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7425,17 +7425,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands', 'Slovakia', 'Ukraine']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7502,17 +7502,17 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands', 'Ukraine', 'Ukraine']</t>
+          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7524,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="Q92" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7579,17 +7579,17 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands', 'Slovakia', 'Ukraine']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Ukraine', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Ukraine']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Ukraine']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Ukraine']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7902,14 +7902,14 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Turkey', 'Ukraine']</t>
+          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7986,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="Q98" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Ukraine']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8056,14 +8056,14 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8125,14 +8125,14 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2691,66 +2691,66 @@
         </is>
       </c>
       <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['Switzerland', 2, -3, 1]</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>['Russia', 4, -2, 1]</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>['Germany', 4, 1, 4]</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Switzerland']</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 2]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -2, 3]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2995,14 +2995,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Switzerland']</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>2</v>
@@ -3307,14 +3307,14 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3440,10 +3440,10 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -3461,10 +3461,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -3538,14 +3538,14 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Russia', 3, -3, 2]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3580,12 +3580,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Russia', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3594,10 +3594,10 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -3615,14 +3615,14 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -3688,14 +3688,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Russia', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -3765,14 +3765,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 2]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>6</v>
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 3]</t>
+          <t>['Denmark', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Denmark', 'Spain']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3902,10 +3902,10 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -3923,7 +3923,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 3]</t>
+          <t>['Denmark', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Denmark', 'Spain']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
       <c r="Q46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Finland', 3, -1, 1]</t>
+          <t>['Denmark', 3, -1, 3]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
         <v>8</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Finland', 3, -1, 1]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4145,23 +4145,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 2]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4350,12 +4350,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 2]</t>
+          <t>['Croatia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 3]</t>
+          <t>['Croatia', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -4607,23 +4607,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>12</v>
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -1, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5120,12 +5120,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -2, 2]</t>
+          <t>['Slovakia', 3, -1, 2]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5211,10 +5211,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -5232,10 +5232,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Slovakia', 3, -2, 2]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -4, 2]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -5459,18 +5459,18 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67">
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -5577,12 +5577,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68">
@@ -5617,7 +5617,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
@@ -5673,10 +5673,10 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -5774,7 +5774,7 @@
         <v>47</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -5808,12 +5808,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 6]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
@@ -5885,12 +5885,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Portugal', 3, 0, 6]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -5962,12 +5962,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 5]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -6039,12 +6039,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 3]</t>
+          <t>['Germany', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -6079,7 +6079,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
@@ -6116,12 +6116,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6138,16 +6138,16 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -6156,54 +6156,54 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6215,7 +6215,7 @@
         <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -6292,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6310,10 +6310,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6429,12 +6429,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6464,14 +6464,14 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6520,10 +6520,10 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 2]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -6618,10 +6618,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Italy', 3, -1, 2]</t>
+          <t>['Croatia', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6660,12 +6660,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Italy']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Hungary', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Italy', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6737,12 +6737,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Italy']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Hungary', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -6763,23 +6763,23 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -6849,7 +6849,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6901,14 +6901,14 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Netherlands']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -6926,10 +6926,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Netherlands', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6978,14 +6978,14 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P85" t="n">
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+          <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7136,10 +7136,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Netherlands', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -7290,10 +7290,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 5]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7367,10 +7367,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -7388,14 +7388,14 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -7456,23 +7456,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Ukraine', 4, -2, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7521,10 +7521,10 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7598,10 +7598,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -7615,18 +7615,18 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Ukraine', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7675,10 +7675,10 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -7692,18 +7692,18 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7733,17 +7733,17 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7755,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="Q95" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -7773,10 +7773,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -7810,17 +7810,17 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7832,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
+          <t>['Georgia', 4, -1, 3]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7902,14 +7902,14 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -7964,12 +7964,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['Turkey', 4, -1, 4]</t>
+          <t>['Georgia', 4, -1, 3]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7983,10 +7983,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -8056,31 +8056,39 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P99" t="n">
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>2024</v>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8110,29 +8118,106 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
+          <t>['Turkey', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>94</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
           <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia']</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>15</v>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['Georgia', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P101" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Netherlands']</t>
+          <t>['Netherlands', 'Slovakia']</t>
         </is>
       </c>
       <c r="P85" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 2]</t>
+          <t>['Switzerland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Switzerland']</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2768,7 +2768,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 3]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2995,67 +2995,67 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="n">
+        <v>62</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -2, 3]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
         <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['Switzerland', 2, -3, 1]</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>['Russia', 4, -2, 1]</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>['Germany', 4, 1, 4]</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Switzerland']</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -3072,14 +3072,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3303,23 +3303,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3380,70 +3380,70 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Russia', 4, -2, 1]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>['Ukraine', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 3]</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>['Russia', 4, -2, 1]</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>['Germany', 4, 1, 4]</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>['Spain', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>1</v>
-      </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3457,14 +3457,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3517,10 +3517,10 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3538,19 +3538,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3615,24 +3615,24 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Denmark', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E43" t="n">
         <v>2</v>
@@ -3704,12 +3704,12 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Russia', 3, -3, 2]</t>
+          <t>['Denmark', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Switzerland', 'Denmark', 'Spain']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Russia', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -3769,7 +3769,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Denmark', 3, -1, 3]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3825,10 +3825,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -3842,14 +3842,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3858,12 +3858,12 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 2]</t>
+          <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Russia', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -3919,11 +3919,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
@@ -3935,12 +3935,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 3]</t>
+          <t>['Finland', 3, -1, 1]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3965,12 +3965,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Denmark', 'Spain']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3979,10 +3979,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -3996,11 +3996,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
@@ -4012,12 +4012,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4056,10 +4056,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -4073,11 +4073,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
@@ -4089,12 +4089,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Finland', 3, -1, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -4145,28 +4145,28 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50">
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4350,12 +4350,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 2]</t>
+          <t>['Croatia', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 2]</t>
+          <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -4607,28 +4607,28 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4672,10 +4672,10 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -4770,10 +4770,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Slovakia', 3, -1, 2]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -4847,10 +4847,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Slovakia', 3, -2, 2]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5074,70 +5074,70 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D61" t="n">
+        <v>61</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['Germany', 4, 1, 4]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 3]</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>['Finland', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>['Germany', 4, 1, 4]</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>['Ukraine', 'Finland']</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>1</v>
-      </c>
       <c r="Q61" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5151,14 +5151,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -1, 2]</t>
+          <t>['Slovakia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5211,10 +5211,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5228,14 +5228,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -2, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -5305,11 +5305,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -5382,11 +5382,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
@@ -5398,7 +5398,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -4, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -5459,23 +5459,23 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5577,12 +5577,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68">
@@ -5617,66 +5617,66 @@
         </is>
       </c>
       <c r="D68" t="n">
+        <v>31</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>['Finland', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['Hungary', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>['Finland', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
         <v>11</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 3]</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>['Finland', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -5, 2]</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>['Finland', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P68" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -5774,7 +5774,7 @@
         <v>47</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5808,12 +5808,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Portugal', 3, 0, 6]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -5885,12 +5885,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 6]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5907,7 +5907,7 @@
         <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -5925,7 +5925,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5962,12 +5962,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="Q72" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6039,12 +6039,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 5]</t>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6061,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="Q73" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -6079,7 +6079,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
@@ -6091,7 +6091,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 3]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6138,16 +6138,16 @@
         <v>1</v>
       </c>
       <c r="Q74" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -6156,54 +6156,54 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6212,10 +6212,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6233,7 +6233,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -6310,10 +6310,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -6429,12 +6429,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6443,10 +6443,10 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6464,14 +6464,14 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6520,7 +6520,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>1</v>
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6618,10 +6618,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 2]</t>
+          <t>['Italy', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6660,12 +6660,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Italy']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Hungary', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Italy', 3, -1, 2]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6737,12 +6737,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Italy']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Hungary', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -6763,23 +6763,23 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6828,7 +6828,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
         <v>3</v>
@@ -6849,7 +6849,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6901,14 +6901,14 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -6926,10 +6926,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+          <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6978,14 +6978,14 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P85" t="n">
         <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
@@ -7003,7 +7003,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
         <v>5</v>
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E87" t="n">
         <v>2</v>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Netherlands', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7136,10 +7136,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+          <t>['Austria', 4, 1, 5]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
@@ -7290,7 +7290,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
         <v>7</v>
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -7338,7 +7338,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -7367,10 +7367,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -7384,18 +7384,18 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
         <v>8</v>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E93" t="n">
         <v>1</v>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Ukraine', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7598,10 +7598,10 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -7619,7 +7619,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E94" t="n">
         <v>1</v>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Ukraine', 4, -2, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -7692,18 +7692,18 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>1</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95" t="n">
         <v>10</v>
@@ -7773,7 +7773,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
@@ -7810,17 +7810,17 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Georgia', 4, -1, 3]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7829,10 +7829,10 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -7850,11 +7850,11 @@
         </is>
       </c>
       <c r="D97" t="n">
+        <v>51</v>
+      </c>
+      <c r="E97" t="n">
         <v>2</v>
       </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>Group F</t>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
         <v>11</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -7964,12 +7964,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7979,14 +7979,14 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -8004,7 +8004,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -8041,12 +8041,12 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
+          <t>['Turkey', 4, -1, 4]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8056,14 +8056,14 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P99" t="n">
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100">
@@ -8081,7 +8081,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -8118,12 +8118,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['Turkey', 4, -1, 4]</t>
+          <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8133,90 +8133,13 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P100" t="n">
         <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>94</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia']</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q101" t="n">
         <v>14</v>
       </c>
     </row>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Romania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Romania']</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P20" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,27 +552,27 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Romania']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -624,37 +624,37 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Albania', 3, -2, 1]</t>
+          <t>['Romania', 1, -1, 2]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Romania']</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -689,14 +689,14 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -706,32 +706,32 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -788,27 +788,27 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -860,32 +860,32 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -942,27 +942,27 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -988,23 +988,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2016-06-21</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1019,27 +1019,27 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1065,23 +1065,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2016-06-21</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1096,27 +1096,27 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1173,27 +1173,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1250,27 +1250,27 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1301,18 +1301,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1332,22 +1332,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1378,18 +1378,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1409,27 +1409,27 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -3, 1]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -3, 1]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1563,27 +1563,27 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1640,27 +1640,27 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1681,23 +1681,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2016-06-22</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1717,27 +1717,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1758,23 +1758,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2016-06-22</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1794,27 +1794,27 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -2, 2]</t>
+          <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1835,23 +1835,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2016-06-22</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 1]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1891,19 +1891,19 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P19" t="n">
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1912,23 +1912,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2016-06-22</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1953,34 +1953,34 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 2]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2030,12 +2030,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 2]</t>
+          <t>['Portugal', 2, 0, 1]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2107,17 +2107,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 3]</t>
+          <t>['Portugal', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2184,12 +2184,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 3]</t>
+          <t>['Portugal', 2, -1, 1]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2261,34 +2261,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 3]</t>
+          <t>['Portugal', 3, 0, 2]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -2338,22 +2338,22 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['Iceland', 3, 0, 3]</t>
+          <t>['Portugal', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -2415,12 +2415,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -2456,18 +2456,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2492,22 +2492,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 2, -1, 3]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2516,10 +2516,10 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -2533,18 +2533,18 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2569,22 +2569,22 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Ireland', 2, -3, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Portugal', 2, -1, 3]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>['Albania', 'Ireland']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -2610,18 +2610,18 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2646,22 +2646,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Ireland', 4, -2, 2]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Iceland', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ireland', 'Portugal', 'Northern Ireland']</t>
+          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>['Turkey', 'Albania']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2673,72 +2673,72 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2747,75 +2747,75 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2824,75 +2824,75 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2904,72 +2904,72 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Albania', 'Ireland']</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2981,72 +2981,72 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 3]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Ireland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Slovakia', 'Ireland', 'Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3055,10 +3055,10 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -3076,10 +3076,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3088,42 +3088,42 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Switzerland', 'Croatia']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -3160,47 +3160,47 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 1, -3, 1]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Switzerland']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3221,63 +3221,63 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3298,63 +3298,63 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3375,63 +3375,63 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3452,63 +3452,63 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 4, -2, 3]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3529,23 +3529,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3555,37 +3555,37 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3611,18 +3611,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3632,37 +3632,37 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 2]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Austria', 'Switzerland', 'Germany', 'Russia']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3688,18 +3688,18 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3709,37 +3709,37 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 3]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Denmark', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -3765,18 +3765,18 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 3]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3796,27 +3796,27 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -3842,18 +3842,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Russia', 3, -3, 2]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3873,27 +3873,27 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Russia', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -3919,18 +3919,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3940,7 +3940,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Finland', 3, -1, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3950,27 +3950,27 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -3996,18 +3996,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E47" t="n">
         <v>2</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4027,27 +4027,27 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -4077,10 +4077,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4104,27 +4104,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Russia', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4133,7 +4133,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" t="n">
         <v>5</v>
@@ -4145,12 +4145,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4181,27 +4181,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -4222,23 +4222,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Denmark', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4258,27 +4258,27 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Denmark']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4287,10 +4287,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -4299,23 +4299,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Denmark', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4335,27 +4335,27 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 2]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Denmark', 'Ukraine']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -4376,23 +4376,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Denmark', 3, -1, 3]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4412,27 +4412,27 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 2]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Denmark']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4444,7 +4444,7 @@
         <v>1</v>
       </c>
       <c r="Q52" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -4453,23 +4453,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4489,27 +4489,27 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 3]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -4530,23 +4530,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Finland', 3, -1, 1]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4566,27 +4566,27 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55">
@@ -4607,23 +4607,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4643,27 +4643,27 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -4684,23 +4684,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D56" t="n">
+        <v>82</v>
+      </c>
+      <c r="E56" t="n">
         <v>2</v>
       </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4720,27 +4720,27 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -4761,23 +4761,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4797,27 +4797,27 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -1, 2]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -4838,23 +4838,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4874,27 +4874,27 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -2, 2]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -4915,23 +4915,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4951,27 +4951,27 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -4992,23 +4992,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5028,27 +5028,27 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Croatia', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5057,10 +5057,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -5069,23 +5069,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5105,27 +5105,27 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -5146,23 +5146,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E62" t="n">
         <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5182,27 +5182,27 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -4, 2]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Croatia', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5211,10 +5211,10 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -5223,23 +5223,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E63" t="n">
         <v>2</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5264,22 +5264,22 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5288,10 +5288,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
@@ -5309,10 +5309,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -5341,22 +5341,22 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5365,10 +5365,10 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -5418,22 +5418,22 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Spain', 2, 0, 1]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5442,10 +5442,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -5459,18 +5459,18 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5495,22 +5495,22 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -5536,18 +5536,18 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5572,22 +5572,22 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -1, 2]</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -5613,18 +5613,18 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E68" t="n">
         <v>1</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5649,22 +5649,22 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -2, 2]</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -5690,18 +5690,18 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5726,17 +5726,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -5767,18 +5767,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5803,17 +5803,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 6]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71">
@@ -5844,18 +5844,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5880,17 +5880,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5904,10 +5904,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -5921,18 +5921,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5957,17 +5957,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 5]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5981,10 +5981,10 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -5998,18 +5998,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6039,12 +6039,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 3]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6058,10 +6058,10 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6135,75 +6135,75 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -6215,16 +6215,16 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -6233,54 +6233,54 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6292,16 +6292,16 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6310,54 +6310,54 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6366,19 +6366,19 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -6387,54 +6387,54 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6443,19 +6443,19 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6464,54 +6464,54 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6523,16 +6523,16 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6541,54 +6541,54 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 2]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Portugal', 3, 0, 6]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6618,54 +6618,54 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Italy', 3, -1, 2]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Italy']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Hungary', 'Czech Republic']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6677,16 +6677,16 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6695,54 +6695,54 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6754,72 +6754,72 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6828,87 +6828,87 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Netherlands']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P84" t="n">
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -6917,63 +6917,63 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Scotland']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6982,10 +6982,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -6994,63 +6994,63 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Scotland', 1, -4, 2]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -7071,75 +7071,75 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['Scotland', 2, -4, 2]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['Albania', 1, -1, 3]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Scotland']</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>['Albania', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
         <v>2</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P87" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -7148,63 +7148,63 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Scotland']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7213,10 +7213,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -7225,23 +7225,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7251,37 +7251,37 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7290,10 +7290,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -7302,23 +7302,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7328,37 +7328,37 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7367,10 +7367,10 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7405,37 +7405,37 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -7456,23 +7456,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7482,37 +7482,37 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Croatia', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -7533,23 +7533,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7559,37 +7559,37 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Italy', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Ukraine', 4, -2, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Italy', 'Hungary']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Denmark', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -7610,23 +7610,23 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7641,32 +7641,32 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -7687,12 +7687,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -7703,7 +7703,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7718,32 +7718,32 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -7764,23 +7764,23 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7795,32 +7795,32 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Netherlands', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7832,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -7841,23 +7841,23 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -7872,32 +7872,32 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -7918,23 +7918,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7949,44 +7949,44 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -7995,23 +7995,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8026,32 +8026,32 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Netherlands', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['Turkey', 4, -1, 4]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -8072,75 +8072,1230 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 5]</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>79</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>['Austria', 4, 1, 5]</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>80</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Denmark', 'Slovakia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>24</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>['Ukraine', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Ukraine', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>37</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
           <t>Group F</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>['Denmark', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>51</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>57</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
         <is>
           <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
-      <c r="P100" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>14</v>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>66</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>['Turkey', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Turkey', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>94</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>['Denmark', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['Georgia', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Romania', 2, -1, 2]</t>
+          <t>['Romania', 3, -1, 2]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Romania', 1, -1, 2]</t>
+          <t>['Romania', 2, -1, 2]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Romania']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -783,7 +783,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 5, 0, 3]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -860,7 +860,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 5, 1, 2]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1361,10 +1361,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 3, -1, 2]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Czech Republic', 'Albania']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
         <v>6</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1592,10 +1592,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2035,17 +2035,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>['Portugal', 2, 0, 1]</t>
+          <t>['Portugal', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -2800,7 +2800,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 3, -1, 1]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2810,12 +2810,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Sweden']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2824,10 +2824,10 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 3, -3, 1]</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3118,12 +3118,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Russia', 'Switzerland']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Switzerland', 1, -3, 1]</t>
+          <t>['Switzerland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland']</t>
+          <t>['Switzerland', 'Croatia']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 5, 0, 3]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
+          <t>['Austria', 'Switzerland', 'Germany', 'Russia']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>3</v>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 5, -2, 1]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Russia', 'Germany', 'Ukraine']</t>
+          <t>['Russia', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
+          <t>['Switzerland', 'Russia', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 3, -1, 1]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4812,12 +4812,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4826,10 +4826,10 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5214,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63">
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
+          <t>['Spain', 4, 0, 1]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
+          <t>['Czech Republic', 'Spain', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
+          <t>['Spain', 3, 0, 1]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5428,12 +5428,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="Q65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
@@ -6270,12 +6270,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Germany', 3, 1, 4]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80">
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Scotland', 3, -4, 2]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Scotland']</t>
+          <t>['Austria', 'Slovakia', 'Scotland', 'Denmark']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['Scotland', 1, -4, 2]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -7045,12 +7045,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Albania']</t>
+          <t>['Austria', 'Slovakia', 'Denmark', 'Scotland']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7136,10 +7136,10 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -7293,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Albania', 3, -1, 3]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7353,12 +7353,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Albania', 'Hungary']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Denmark', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7367,7 +7367,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90" t="n">
         <v>3</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Albania', 1, -1, 3]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96">
@@ -7832,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -7909,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Denmark', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -8364,14 +8364,14 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>['Denmark', 'Slovakia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P103" t="n">
         <v>1</v>
       </c>
       <c r="Q103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Denmark', 'Slovakia', 'Hungary']</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8441,11 +8441,11 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" t="n">
         <v>12</v>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 5, 0, 2]</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Slovakia', 'Netherlands', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8522,10 +8522,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -8575,7 +8575,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="Q107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="Q108" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -8811,17 +8811,17 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 3, -1, 2]</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8830,10 +8830,10 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8888,17 +8888,17 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8907,10 +8907,10 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8970,12 +8970,12 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="Q111" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9047,12 +9047,12 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="Q112" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9124,24 +9124,24 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P113" t="n">
         <v>1</v>
       </c>
       <c r="Q113" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9201,12 +9201,12 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Turkey', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="Q114" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Denmark', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9278,24 +9278,24 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P115" t="n">
         <v>1</v>
       </c>
       <c r="Q115" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -6948,7 +6948,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6968,7 +6968,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Scotland', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Scotland', 'Slovenia']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Scotland']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Scotland']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -7179,7 +7179,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Denmark', 'Scotland']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -7333,7 +7333,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Denmark', 'Czech Republic']</t>
+          <t>['Slovenia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7410,7 +7410,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>['Denmark', 'Czech Republic']</t>
+          <t>['Slovenia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -7892,7 +7892,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -7969,7 +7969,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8046,7 +8046,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -8103,7 +8103,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>['Denmark', 2, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>['Denmark', 4, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Denmark', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -8431,7 +8431,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Denmark', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Denmark']</t>
+          <t>['Slovenia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Netherlands', 'Denmark', 'Hungary']</t>
+          <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Ukraine', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -8739,7 +8739,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Czech Republic']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Denmark', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Turkey', 'Denmark']</t>
+          <t>['Netherlands', 'Slovakia', 'Turkey', 'Slovenia']</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Denmark']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P115" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1361,10 +1361,10 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2281,14 +2281,14 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -2904,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -4210,10 +4210,10 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -4441,10 +4441,10 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -4598,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5214,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -5442,10 +5442,10 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -6138,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -6289,10 +6289,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
@@ -6600,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -6677,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -6831,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7139,7 +7139,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7293,7 +7293,7 @@
         <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -7370,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -7447,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -7601,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -7832,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -7909,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -8063,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -8140,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -8368,10 +8368,10 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104">
@@ -8441,14 +8441,14 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Slovakia']</t>
+          <t>['Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="P104" t="n">
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105">
@@ -8522,10 +8522,10 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106">
@@ -8599,10 +8599,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107">
@@ -8679,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="Q107" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108">
@@ -8756,7 +8756,7 @@
         <v>1</v>
       </c>
       <c r="Q108" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -8833,7 +8833,7 @@
         <v>1</v>
       </c>
       <c r="Q109" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110">
@@ -8910,7 +8910,7 @@
         <v>1</v>
       </c>
       <c r="Q110" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -8987,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="Q111" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112">
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="Q112" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -9134,14 +9134,14 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114">
@@ -9218,7 +9218,7 @@
         <v>1</v>
       </c>
       <c r="Q114" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
@@ -9288,14 +9288,14 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P115" t="n">
         <v>1</v>
       </c>
       <c r="Q115" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Finland', 3, -1, 1]</t>
+          <t>['Russia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4752,7 +4752,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -4787,7 +4787,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="Q61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5214,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="Q62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5368,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -5403,7 +5403,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5587,7 +5587,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -5711,7 +5711,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -5865,7 +5865,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -5942,7 +5942,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6049,19 +6049,19 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P73" t="n">
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6126,19 +6126,19 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P74" t="n">
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6203,19 +6203,19 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P75" t="n">
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
@@ -6250,7 +6250,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6280,19 +6280,19 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6357,19 +6357,19 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P77" t="n">
         <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6434,19 +6434,19 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P78" t="n">
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6511,19 +6511,19 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -6558,7 +6558,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6588,19 +6588,19 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P80" t="n">
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -6635,7 +6635,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6665,19 +6665,19 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P81" t="n">
         <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6742,19 +6742,19 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P82" t="n">
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6819,19 +6819,19 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P83" t="n">
         <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6896,19 +6896,19 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Russia', 'Slovakia']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Russia']</t>
         </is>
       </c>
       <c r="P84" t="n">
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -542,47 +542,23 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['Romania', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, 0, 3]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>Group 1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Romania', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -599,7 +575,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -619,47 +595,23 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['Romania', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, 0, 3]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>Group 2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -676,7 +628,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016</v>
+        <v>1988</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -689,54 +641,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['Albania', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, 0, 3]</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>Group 1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -745,19 +673,19 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016</v>
+        <v>1988</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -773,47 +701,23 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Group B</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['Albania', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>['Slovakia', 5, 0, 3]</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>Group 2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -825,16 +729,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -850,47 +754,23 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Group B</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['Albania', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>Group 1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -902,16 +782,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016</v>
+        <v>1992</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -920,54 +800,30 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Group B</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['Albania', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>Group 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -979,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -988,7 +844,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -997,19 +853,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Albania', 3, -2, 1]</t>
+          <t>['Romania', 3, -1, 2]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1019,27 +875,23 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Romania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1056,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +917,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1074,14 +926,14 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1096,27 +948,23 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 1, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,7 +978,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1142,12 +990,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2016-06-21</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1158,7 +1006,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1168,32 +1016,28 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 5, 0, 3]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 5, 1, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1219,23 +1063,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2016-06-21</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1255,22 +1099,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1296,23 +1136,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2016-06-21</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1327,27 +1167,23 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1373,23 +1209,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2016-06-21</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1404,27 +1240,23 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Northern Ireland', 4, 1, 2]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1455,7 +1287,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1466,7 +1298,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1481,32 +1313,28 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
+          <t>['Northern Ireland', 5, 1, 2]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Czech Republic', 3, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Czech Republic', 'Albania']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1515,10 +1343,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1532,18 +1360,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1568,17 +1396,13 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1592,10 +1416,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1609,18 +1433,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1645,17 +1469,13 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1672,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1690,7 +1510,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1717,27 +1537,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -3, 1]</t>
+          <t>['Czech Republic', 3, -1, 2]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Czech Republic', 'Albania']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1746,10 +1562,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1583,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1794,27 +1610,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -3, 1]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1826,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1844,66 +1656,62 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -3, 1]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>['Turkey', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['Albania', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -2, 2]</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Sweden']</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1921,66 +1729,62 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Group D</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>['Turkey', 3, -3, 1]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>['Turkey', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>2</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['Albania', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>['Turkey', 3, -2, 2]</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>['Portugal', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Sweden']</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1989,23 +1793,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2016-06-22</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2030,17 +1834,13 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2054,10 +1854,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2066,23 +1866,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2016-06-22</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2107,17 +1907,13 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>['Portugal', 3, 0, 1]</t>
-        </is>
-      </c>
+          <t>['Sweden', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2134,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2152,7 +1948,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -2184,22 +1980,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 1]</t>
+          <t>['Portugal', 3, 0, 1]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2211,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2229,7 +2025,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2261,34 +2057,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 2]</t>
+          <t>['Portugal', 2, -1, 1]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Sweden', 'Portugal']</t>
         </is>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2306,10 +2102,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2338,34 +2134,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 2]</t>
+          <t>['Portugal', 3, 0, 2]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2383,7 +2179,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -2415,22 +2211,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 3]</t>
+          <t>['Portugal', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2442,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2460,7 +2256,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -2492,22 +2288,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 3]</t>
+          <t>['Portugal', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2519,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2537,7 +2333,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -2569,7 +2365,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2593,10 +2389,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2614,7 +2410,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -2646,22 +2442,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['Iceland', 3, 0, 3]</t>
+          <t>['Portugal', 2, -1, 3]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2670,10 +2466,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2691,7 +2487,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -2723,17 +2519,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Sweden', 1, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 4]</t>
+          <t>['Iceland', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2750,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2764,18 +2560,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2800,7 +2596,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Sweden', 3, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2810,12 +2606,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Sweden']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Turkey', 'Albania']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2827,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2877,7 +2673,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 3, -1, 1]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2887,12 +2683,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Sweden']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2904,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -2978,10 +2774,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -3058,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
@@ -3093,37 +2889,33 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Switzerland']</t>
+          <t>['Austria', 'Russia', 'Spain', 'Switzerland']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Switzerland', 'Croatia']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3153,7 +2945,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -3165,42 +2957,38 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Switzerland', 2, -3, 1]</t>
+          <t>['Switzerland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
+          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3209,10 +2997,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3230,7 +3018,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -3242,37 +3030,33 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 2]</t>
+          <t>['Switzerland', 4, -1, 3]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
+          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3286,10 +3070,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3307,7 +3091,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -3324,32 +3108,28 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
+          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3366,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3384,10 +3164,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3396,37 +3176,33 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -2, 3]</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
+          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3443,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3461,7 +3237,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
@@ -3473,37 +3249,33 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 3]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
+          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3520,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3529,23 +3301,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-06-20</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3555,32 +3327,28 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Austria', 3, 0, 3]</t>
+          <t>['Austria', 5, 0, 3]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
+          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3597,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3615,7 +3383,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -3632,37 +3400,33 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Austria', 5, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Austria', 'Switzerland', 'Germany', 'Russia']</t>
+          <t>['Switzerland', 'Russia', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3671,10 +3435,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3692,7 +3456,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -3709,37 +3473,33 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Ukraine', 3, -1, 4]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Austria', 'Switzerland', 'Germany', 'Russia']</t>
+          <t>['Switzerland', 'Russia', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3751,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -3769,10 +3529,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3786,7 +3546,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3796,27 +3556,23 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
+          <t>['Switzerland', 'Russia', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3825,10 +3581,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3846,10 +3602,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3863,7 +3619,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3873,27 +3629,23 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
+          <t>['Switzerland', 'Russia', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3905,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3919,18 +3671,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3940,7 +3692,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Russia', 3, -2, 1]</t>
+          <t>['Russia', 5, -2, 1]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3950,27 +3702,23 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
+          <t>['Russia', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3982,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3996,70 +3744,66 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['Denmark', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -1, 1]</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
         <v>2</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>['Russia', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>['Croatia', 1, -1, 1]</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>['Spain', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -4077,10 +3821,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -4094,7 +3838,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Russia', 5, -2, 1]</t>
+          <t>['Denmark', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4104,27 +3848,23 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Russia', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Switzerland', 'Denmark', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -4136,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4154,10 +3894,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -4171,7 +3911,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Denmark', 3, -1, 3]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4181,27 +3921,23 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Russia', 'Germany', 'Ukraine']</t>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Denmark']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Denmark', 'Croatia']</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4213,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4231,10 +3967,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -4248,7 +3984,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 2]</t>
+          <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4258,27 +3994,23 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Denmark']</t>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Russia', 'Croatia']</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4290,7 +4022,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -4308,7 +4040,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
@@ -4325,7 +4057,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 3]</t>
+          <t>['Finland', 3, -1, 1]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4335,27 +4067,23 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Denmark', 'Ukraine']</t>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4364,7 +4092,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
         <v>4</v>
@@ -4385,7 +4113,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -4402,7 +4130,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4412,27 +4140,23 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Denmark']</t>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4462,7 +4186,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
@@ -4479,7 +4203,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Russia', 3, -3, 2]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4489,27 +4213,23 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4518,10 +4238,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4530,23 +4250,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4556,7 +4276,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Finland', 3, -1, 1]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4566,27 +4286,23 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 3, -1, 1]</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Finland']</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4598,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -4607,23 +4323,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4643,27 +4359,23 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4672,7 +4384,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
         <v>6</v>
@@ -4684,23 +4396,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4720,27 +4432,23 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Croatia', 1, -1, 1]</t>
+          <t>['Croatia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Croatia', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4749,10 +4457,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -4770,7 +4478,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -4797,27 +4505,23 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Croatia', 3, -1, 1]</t>
+          <t>['Croatia', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Croatia']</t>
+          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Finland', 'Croatia']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4829,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -4847,10 +4551,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4874,27 +4578,23 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Croatia', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4906,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -4924,10 +4624,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -4951,27 +4651,23 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4980,10 +4676,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
@@ -4992,23 +4688,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5028,27 +4724,23 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 2]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Spain', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5057,10 +4749,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5069,23 +4761,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5105,27 +4797,23 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 2]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Switzerland', 'Spain', 'Ukraine']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -5134,7 +4822,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" t="n">
         <v>10</v>
@@ -5146,23 +4834,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5182,27 +4870,23 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 3]</t>
+          <t>['Czech Republic', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Slovakia']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5223,23 +4907,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5264,22 +4948,18 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Spain', 2, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Slovakia']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>['Finland', 'Spain']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5288,10 +4968,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -5309,10 +4989,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -5341,22 +5021,18 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Spain', 4, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Switzerland', 'Germany']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5368,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -5386,10 +5062,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -5418,22 +5094,18 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5445,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -5463,11 +5135,11 @@
         </is>
       </c>
       <c r="D66" t="n">
+        <v>61</v>
+      </c>
+      <c r="E66" t="n">
         <v>2</v>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>Group E</t>
@@ -5495,22 +5167,18 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5522,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -5540,10 +5208,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -5572,22 +5240,18 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -4, 2]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5596,10 +5260,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -5617,10 +5281,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -5649,22 +5313,18 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -2, 2]</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5676,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -5694,7 +5354,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -5726,17 +5386,13 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5753,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
@@ -5771,7 +5427,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -5803,17 +5459,13 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>['Germany', 3, 1, 4]</t>
-        </is>
-      </c>
+          <t>['Slovakia', 3, -5, 2]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5830,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71">
@@ -5844,18 +5496,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5880,17 +5532,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['Germany', 3, 1, 4]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5904,10 +5556,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
@@ -5921,18 +5573,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5957,17 +5609,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -4, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['Germany', 3, 1, 4]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5984,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73">
@@ -5998,18 +5650,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6039,12 +5691,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['Germany', 3, 1, 4]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6061,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
@@ -6075,18 +5727,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6116,12 +5768,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Germany', 3, 1, 4]</t>
+          <t>['Portugal', 3, 0, 6]</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6135,7 +5787,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" t="n">
         <v>14</v>
@@ -6152,18 +5804,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6193,12 +5845,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Germany', 3, 1, 4]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -6212,10 +5864,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
@@ -6233,10 +5885,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -6270,7 +5922,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 4]</t>
+          <t>['Germany', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -6289,10 +5941,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77">
@@ -6310,10 +5962,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -6347,7 +5999,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6369,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
@@ -6387,10 +6039,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -6424,12 +6076,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6443,19 +6095,19 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6464,54 +6116,50 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Scotland', 3, -4, 2]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
-        </is>
-      </c>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Slovakia', 'Slovenia', 'Scotland', 'Albania']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6523,16 +6171,16 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6541,54 +6189,50 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
-        </is>
-      </c>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Slovakia', 'Slovenia', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6600,16 +6244,16 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6618,54 +6262,50 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
-        </is>
-      </c>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Slovakia', 'Slovenia', 'Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Czech Republic', 'Scotland']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6674,19 +6314,19 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6695,54 +6335,50 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
-        </is>
-      </c>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 5]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Slovakia', 'Slovenia', 'Hungary', 'Albania']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6754,16 +6390,16 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6772,75 +6408,71 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -1, 3]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Slovenia', 'Albania', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
         <v>2</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>['Finland', 3, -2, 1]</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, -5, 2]</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>['Hungary', 4, -2, 3]</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>['Finland', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6849,54 +6481,50 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Croatia', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
-        </is>
-      </c>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Slovakia', 'Slovenia', 'Hungary', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6908,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
@@ -6917,7 +6545,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6926,54 +6554,50 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Scotland', 3, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Albania', 1, -1, 3]</t>
+          <t>['Italy', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>['Austria', 3, 1, 3]</t>
-        </is>
-      </c>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Scotland', 'Slovenia']</t>
+          <t>['Slovakia', 'Slovenia', 'Italy', 'Hungary']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Hungary', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6982,10 +6606,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -6994,7 +6618,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -7003,54 +6627,50 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Albania', 1, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>['Austria', 3, 1, 3]</t>
-        </is>
-      </c>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
+          <t>['Slovakia', 'Slovenia', 'Hungary', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -7059,10 +6679,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -7071,75 +6691,75 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Albania', 1, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -7148,63 +6768,63 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Albania', 1, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -7213,10 +6833,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -7225,23 +6845,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7251,37 +6871,37 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Albania', 1, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -7290,10 +6910,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -7302,23 +6922,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7328,37 +6948,37 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Albania', 3, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Albania', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7370,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -7379,23 +6999,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7405,37 +7025,37 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Austria', 4, 1, 5]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7447,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
@@ -7456,23 +7076,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7482,37 +7102,37 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 2]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Austria', 4, 1, 5]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7524,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -7533,23 +7153,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7559,37 +7179,37 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Italy', 3, -1, 2]</t>
+          <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Italy', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7601,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -7610,7 +7230,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -7619,14 +7239,14 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7641,44 +7261,44 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Austria', 3, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -7687,7 +7307,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -7703,7 +7323,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7718,32 +7338,32 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 5, 0, 2]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7755,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -7764,7 +7384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -7773,14 +7393,14 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7795,32 +7415,32 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Ukraine', 4, -2, 2]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovenia', 'Ukraine', 'Hungary']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7832,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
@@ -7841,7 +7461,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -7850,14 +7470,14 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -7872,32 +7492,32 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7909,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -7918,23 +7538,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7949,32 +7569,32 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Czech Republic', 3, -1, 2]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7983,10 +7603,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
@@ -7995,23 +7615,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8026,32 +7646,32 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 3]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Georgia', 4, -1, 3]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Georgia']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -8063,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -8072,23 +7692,23 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8103,32 +7723,32 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Georgia', 4, -1, 3]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Georgia']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -8137,10 +7757,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q100" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -8149,23 +7769,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8180,44 +7800,44 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
@@ -8226,23 +7846,23 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E102" t="n">
         <v>2</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -8257,7 +7877,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>['Slovenia', 2, 0, 2]</t>
+          <t>['Slovenia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -8267,22 +7887,22 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Turkey', 4, -1, 4]</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Turkey']</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -8294,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103">
@@ -8303,7 +7923,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -8312,14 +7932,14 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8344,958 +7964,34 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, 0, 2]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
+          <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic']</t>
+          <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2024-06-25</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Group C</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>['Slovakia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Czech Republic']</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>['Slovakia', 'Slovenia']</t>
-        </is>
-      </c>
-      <c r="P104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>['Slovakia', 5, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Czech Republic']</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Czech Republic']</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>24</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>['Ukraine', 4, -2, 2]</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Ukraine', 'Slovenia', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Czech Republic']</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>37</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 1, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Czech Republic']</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Czech Republic']</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q109" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P110" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q110" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, -1, 3]</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>51</v>
-      </c>
-      <c r="E112" t="n">
-        <v>2</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, -1, 3]</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>57</v>
-      </c>
-      <c r="E113" t="n">
-        <v>2</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia']</t>
-        </is>
-      </c>
-      <c r="P113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>66</v>
-      </c>
-      <c r="E114" t="n">
-        <v>2</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>['Turkey', 4, -1, 4]</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Turkey', 'Slovenia']</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q114" t="n">
         <v>16</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2024-06-26</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D115" t="n">
-        <v>94</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>['Georgia', 4, 0, 4]</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>['Hungary', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia']</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q115" t="n">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1984</v>
+        <v>2016</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -542,23 +542,47 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Romania', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Northern Ireland', 'Slovakia', 'Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -575,7 +599,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1984</v>
+        <v>2016</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -595,23 +619,47 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Group 2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Romania', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -628,7 +676,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1988</v>
+        <v>2016</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -641,30 +689,54 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -673,19 +745,19 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1988</v>
+        <v>2016</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2016-06-19</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -701,23 +773,47 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Group 2</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Slovakia', 5, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -729,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1992</v>
+        <v>2016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2016-06-19</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -754,23 +850,47 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -782,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1992</v>
+        <v>2016</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2016-06-19</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -800,30 +920,54 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Group 2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Northern Ireland', 3, 1, 2]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Czech Republic', 'Sweden']</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -835,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -844,7 +988,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2016-06-19</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -853,19 +997,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Romania', 3, -1, 2]</t>
+          <t>['Albania', 3, -2, 1]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -875,23 +1019,27 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Romania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -908,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -917,7 +1065,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2016-06-19</t>
+          <t>2016-06-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -926,14 +1074,14 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -948,23 +1096,27 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 1, 2]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -978,7 +1130,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -990,12 +1142,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1006,7 +1158,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1016,28 +1168,32 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Slovakia', 5, 0, 3]</t>
+          <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 5, 1, 2]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Czech Republic']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1063,23 +1219,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1099,18 +1255,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
+          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1136,23 +1296,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1167,23 +1327,27 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1209,23 +1373,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2016-06-20</t>
+          <t>2016-06-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1240,23 +1404,27 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 4, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1287,7 +1455,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1298,7 +1466,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1313,28 +1481,32 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 5, 1, 2]</t>
+          <t>['Northern Ireland', 3, 0, 2]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 3, -1, 2]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Slovakia', 'Albania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Czech Republic', 'Albania']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1343,10 +1515,10 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1360,18 +1532,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1396,13 +1568,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1416,10 +1592,10 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1433,18 +1609,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1469,13 +1645,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1492,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1510,7 +1690,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -1537,23 +1717,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>['Czech Republic', 3, -1, 2]</t>
+          <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Czech Republic', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1562,10 +1746,10 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1583,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -1610,23 +1794,27 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Turkey', 3, -3, 1]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Czech Republic']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1638,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1656,10 +1844,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1683,23 +1871,27 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -3, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1708,10 +1900,10 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1729,10 +1921,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1756,23 +1948,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>['Turkey', 3, -3, 1]</t>
+          <t>['Turkey', 3, -2, 2]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>['Portugal', 2, 0, 1]</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>['Turkey', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1784,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1793,23 +1989,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2016-06-21</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1834,13 +2030,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1854,10 +2054,10 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1866,23 +2066,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2016-06-21</t>
+          <t>2016-06-22</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1907,13 +2107,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
+          <t>['Sweden', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>['Portugal', 3, 0, 1]</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1930,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1948,7 +2152,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -1980,22 +2184,22 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 1]</t>
+          <t>['Portugal', 2, -1, 1]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2007,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2025,7 +2229,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -2057,34 +2261,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 1]</t>
+          <t>['Portugal', 3, 0, 2]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Sweden', 'Portugal']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P24" t="n">
         <v>1</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -2102,10 +2306,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2134,34 +2338,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 2]</t>
+          <t>['Portugal', 2, -1, 2]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2179,7 +2383,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -2211,22 +2415,22 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 2]</t>
+          <t>['Portugal', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2238,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2256,7 +2460,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -2288,22 +2492,22 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 3]</t>
+          <t>['Portugal', 2, -1, 3]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Portugal', 'Sweden']</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2315,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -2333,7 +2537,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -2365,7 +2569,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2389,10 +2593,10 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2410,7 +2614,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -2442,22 +2646,22 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>['Portugal', 2, -1, 3]</t>
+          <t>['Iceland', 3, 0, 3]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
+          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>['Portugal', 'Sweden']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2466,10 +2670,10 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -2487,7 +2691,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -2519,17 +2723,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 1, -1, 1]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>['Iceland', 3, 0, 3]</t>
+          <t>['Portugal', 3, 0, 4]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Iceland', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2546,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -2560,18 +2764,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2596,7 +2800,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>['Sweden', 2, -1, 1]</t>
+          <t>['Sweden', 3, -1, 1]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2606,12 +2810,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Sweden']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>['Albania', 'Sweden']</t>
+          <t>['Turkey', 'Albania']</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2623,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="Q31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -2673,7 +2877,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>['Sweden', 3, -1, 1]</t>
+          <t>['Sweden', 2, -1, 1]</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2683,12 +2887,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Sweden']</t>
+          <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>['Turkey', 'Albania']</t>
+          <t>['Albania', 'Sweden']</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2700,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -2774,10 +2978,10 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -2854,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -2889,33 +3093,37 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>['Austria', 'Russia', 'Spain', 'Switzerland']</t>
+          <t>['Germany', 'Austria', 'Russia', 'Switzerland']</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2945,7 +3153,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -2957,38 +3165,42 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -2, 2]</t>
+          <t>['Switzerland', 2, -3, 1]</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Switzerland', 'Croatia']</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2997,10 +3209,10 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3018,7 +3230,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -3030,33 +3242,37 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 3]</t>
+          <t>['Switzerland', 4, -2, 2]</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3070,10 +3286,10 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3091,7 +3307,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -3108,28 +3324,32 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3146,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3164,62 +3384,66 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Group A</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Switzerland', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>['Russia', 3, -2, 1]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['Austria', 3, 0, 3]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>['Croatia', 1, -1, 1]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>2</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Group A</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['Switzerland', 4, -2, 3]</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>['Russia', 4, -2, 1]</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>['Austria', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -1, 1]</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>['Spain', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3237,7 +3461,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
@@ -3249,33 +3473,37 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Switzerland', 4, -1, 4]</t>
+          <t>['Switzerland', 4, -2, 3]</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>['Austria', 4, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3292,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3301,23 +3529,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3327,28 +3555,32 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>['Austria', 5, 0, 3]</t>
+          <t>['Austria', 3, 0, 3]</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['Austria', 'Switzerland', 'Russia', 'Spain']</t>
+          <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3365,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3383,7 +3615,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -3400,33 +3632,37 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 5, 0, 3]</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Russia', 'Spain', 'Ukraine']</t>
+          <t>['Austria', 'Switzerland', 'Germany', 'Russia']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3435,10 +3671,10 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3456,7 +3692,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -3473,33 +3709,37 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>['Ukraine', 3, -1, 4]</t>
+          <t>['Austria', 4, 0, 3]</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Russia', 'Spain', 'Ukraine']</t>
+          <t>['Austria', 'Switzerland', 'Germany', 'Russia']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3511,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -3529,10 +3769,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3546,7 +3786,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3556,23 +3796,27 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Russia', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3581,10 +3825,10 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -3602,10 +3846,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3619,7 +3863,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Russia', 4, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3629,23 +3873,27 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Russia', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3657,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -3671,18 +3919,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3692,7 +3940,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Russia', 5, -2, 1]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3702,23 +3950,27 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['Russia', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3730,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -3744,18 +3996,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3765,7 +4017,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 2]</t>
+          <t>['Russia', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3775,23 +4027,27 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Denmark']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3800,10 +4056,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -3821,10 +4077,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3838,7 +4094,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Denmark', 3, 0, 3]</t>
+          <t>['Russia', 5, -2, 1]</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3848,23 +4104,27 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Denmark', 'Spain', 'Ukraine']</t>
+          <t>['Russia', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3876,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -3894,10 +4154,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3911,7 +4171,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Denmark', 3, -1, 3]</t>
+          <t>['Russia', 4, -2, 1]</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3921,23 +4181,27 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Denmark']</t>
+          <t>['Switzerland', 'Russia', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>['Denmark', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3949,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -3967,10 +4231,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3984,7 +4248,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Russia', 3, -3, 2]</t>
+          <t>['Denmark', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3994,23 +4258,27 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Russia']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Denmark']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>['Russia', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4022,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4040,7 +4308,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
@@ -4057,7 +4325,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Finland', 3, -1, 1]</t>
+          <t>['Denmark', 3, 0, 3]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4067,23 +4335,27 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Denmark', 'Ukraine']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4092,7 +4364,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>4</v>
@@ -4113,7 +4385,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -4130,7 +4402,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Denmark', 3, -1, 3]</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4140,23 +4412,27 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Denmark']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4186,7 +4462,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
@@ -4203,7 +4479,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Russia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4213,23 +4489,27 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4238,10 +4518,10 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -4250,23 +4530,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4276,7 +4556,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Finland', 3, -2, 1]</t>
+          <t>['Finland', 3, -1, 1]</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4286,23 +4566,27 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>['Croatia', 3, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Croatia']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>['Croatia', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4314,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -4323,23 +4607,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4359,23 +4643,27 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 1]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4384,7 +4672,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
         <v>6</v>
@@ -4396,23 +4684,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4432,23 +4720,27 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 2]</t>
+          <t>['Croatia', 1, -1, 1]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4457,10 +4749,10 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -4478,7 +4770,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -4505,23 +4797,27 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -1, 2]</t>
+          <t>['Croatia', 3, -1, 1]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Spain', 'Ukraine', 'Finland']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Croatia']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>['Finland', 'Croatia']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4533,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="Q57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -4551,10 +4847,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -4578,23 +4874,27 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>['Croatia', 4, 0, 3]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>['Croatia', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4606,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="Q58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -4624,10 +4924,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -4651,23 +4951,27 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 2, -1, 1]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4676,10 +4980,10 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -4688,23 +4992,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4724,23 +5028,27 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>['Spain', 4, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Spain', 'Switzerland', 'Ukraine']</t>
+          <t>['Croatia', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4749,10 +5057,10 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
@@ -4761,23 +5069,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4797,23 +5105,27 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 2, -1, 2]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>['Spain', 3, 0, 1]</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Spain', 'Ukraine']</t>
+          <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Finland']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4822,7 +5134,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61" t="n">
         <v>10</v>
@@ -4834,23 +5146,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4870,23 +5182,27 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>['Czech Republic', 4, 1, 3]</t>
+          <t>['Croatia', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -1, 2]</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Slovakia']</t>
+          <t>['Croatia', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4907,23 +5223,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4948,18 +5264,22 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -2, 2]</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
+          <t>['Spain', 2, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Slovakia']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Finland']</t>
+          <t>['Finland', 'Spain']</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4968,10 +5288,10 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -4989,10 +5309,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -5021,18 +5341,22 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+          <t>['Spain', 4, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Spain', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5044,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
@@ -5062,10 +5386,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -5094,18 +5418,22 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5117,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -5135,10 +5463,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -5167,18 +5495,22 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>['Spain', 3, 0, 1]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Ukraine', 'Finland']</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5190,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -5208,10 +5540,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -5240,18 +5572,22 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -4, 2]</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>['Slovakia', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5260,10 +5596,10 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -5281,10 +5617,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -5313,18 +5649,22 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+          <t>['Slovakia', 3, -2, 2]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>['Finland', 'Slovakia']</t>
+          <t>['Slovakia', 'Finland']</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5336,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -5354,7 +5694,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E69" t="n">
         <v>2</v>
@@ -5386,13 +5726,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5409,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -5427,7 +5771,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
@@ -5459,13 +5803,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>['Slovakia', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>['Germany', 3, 1, 4]</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Ukraine', 'Finland']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5482,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -5496,18 +5844,18 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5532,17 +5880,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -3, 2]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5556,10 +5904,10 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -5573,18 +5921,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5609,17 +5957,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>['Slovakia', 3, -5, 2]</t>
+          <t>['Slovakia', 3, -4, 2]</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5636,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -5650,18 +5998,18 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5691,12 +6039,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5713,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -5727,18 +6075,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5768,12 +6116,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>['Portugal', 3, 0, 6]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5787,7 +6135,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
         <v>14</v>
@@ -5804,18 +6152,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5845,12 +6193,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 2]</t>
+          <t>['Germany', 3, 1, 4]</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5864,10 +6212,10 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -5885,10 +6233,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -5922,7 +6270,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 5]</t>
+          <t>['Germany', 4, 1, 4]</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5941,10 +6289,10 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -5962,10 +6310,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -5999,7 +6347,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>['Hungary', 4, -2, 3]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -6021,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="Q77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -6039,10 +6387,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -6076,12 +6424,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>['Germany', 4, 1, 6]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6095,19 +6443,19 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -6116,50 +6464,54 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E79" t="n">
         <v>1</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Scotland', 3, -4, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia', 'Scotland', 'Albania']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6171,16 +6523,16 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6189,50 +6541,54 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr"/>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Portugal', 3, 0, 6]</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia', 'Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6244,16 +6600,16 @@
         <v>1</v>
       </c>
       <c r="Q80" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -6262,50 +6618,54 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Scotland', 2, -4, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr"/>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Hungary', 4, -2, 2]</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia', 'Albania', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Scotland']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6314,19 +6674,19 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6335,50 +6695,54 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Albania', 2, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 5]</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia', 'Hungary', 'Albania']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>['Albania', 'Czech Republic']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6390,16 +6754,16 @@
         <v>1</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6408,50 +6772,54 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Albania', 3, -1, 3]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr"/>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Hungary', 4, -2, 3]</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia', 'Albania', 'Hungary']</t>
+          <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>['Hungary', 'Czech Republic']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6460,19 +6828,19 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6481,50 +6849,54 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Switzerland', 4, -1, 4]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 2]</t>
+          <t>['Finland', 3, -2, 1]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr"/>
+          <t>['Ukraine', 3, -1, 4]</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 4, 1, 3]</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, -5, 2]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Germany', 4, 1, 6]</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia', 'Hungary', 'Czech Republic']</t>
+          <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Finland', 'Slovakia']</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6536,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -6545,7 +6917,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6554,50 +6926,54 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Scotland', 3, -4, 2]</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Italy', 3, -1, 2]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
+          <t>['Slovenia', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia', 'Italy', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Scotland', 'Slovenia']</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>['Hungary', 'Czech Republic']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6606,10 +6982,10 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -6618,7 +6994,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6627,50 +7003,54 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
+          <t>['Slovenia', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia', 'Hungary', 'Czech Republic']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6679,10 +7059,10 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -6691,75 +7071,75 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E87" t="n">
         <v>1</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 2]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Netherlands']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -6768,63 +7148,63 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['Hungary', 3, -3, 2]</t>
+          <t>['Scotland', 2, -4, 2]</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6833,10 +7213,10 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -6845,23 +7225,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E89" t="n">
         <v>2</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6871,37 +7251,37 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 1, -1, 3]</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6910,10 +7290,10 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -6922,75 +7302,75 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Group B</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['Albania', 3, -1, 3]</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['Slovenia', 2, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>['Austria', 3, 1, 3]</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>['Austria', 'Slovakia', 'Albania', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>['Slovenia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
         <v>2</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Group D</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['Hungary', 3, -3, 2]</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>['Croatia', 2, -3, 3]</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>['Slovenia', 3, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>['Netherlands', 4, 0, 3]</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>['Slovakia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 'Croatia']</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -6999,23 +7379,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7025,37 +7405,37 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Albania', 2, -1, 3]</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Albania', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7067,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -7076,23 +7456,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7102,37 +7482,37 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Croatia', 2, -3, 2]</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>['Austria', 4, 1, 5]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7144,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="Q92" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -7153,23 +7533,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7179,37 +7559,37 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Croatia', 2, -3, 3]</t>
+          <t>['Italy', 3, -1, 2]</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>['Slovenia', 3, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Italy', 'Hungary']</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Slovenia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7221,7 +7601,7 @@
         <v>1</v>
       </c>
       <c r="Q93" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -7230,7 +7610,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -7239,14 +7619,14 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7261,44 +7641,44 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 3, 1, 3]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -7307,7 +7687,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -7323,7 +7703,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7338,32 +7718,32 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 3]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>['Slovakia', 5, 0, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7375,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="Q95" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
@@ -7384,7 +7764,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -7393,14 +7773,14 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7415,32 +7795,32 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Netherlands', 4, 0, 2]</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>['Ukraine', 4, -2, 2]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovenia', 'Ukraine', 'Hungary']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7452,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="Q96" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -7461,7 +7841,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -7470,14 +7850,14 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -7492,32 +7872,32 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>['Czech Republic', 2, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7529,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="Q97" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -7538,23 +7918,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7569,32 +7949,32 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 4]</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>['Czech Republic', 3, -1, 2]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Czech Republic']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7603,10 +7983,10 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
@@ -7615,23 +7995,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D99" t="n">
+        <v>59</v>
+      </c>
+      <c r="E99" t="n">
         <v>2</v>
       </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7646,32 +8026,32 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Netherlands', 4, 0, 3]</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Georgia']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7683,7 +8063,7 @@
         <v>1</v>
       </c>
       <c r="Q99" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100">
@@ -7692,23 +8072,23 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -7723,32 +8103,32 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 5]</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>['Georgia', 4, -1, 3]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Georgia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7757,10 +8137,10 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q100" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -7769,23 +8149,23 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7800,44 +8180,44 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>['Netherlands', 4, 0, 4]</t>
+          <t>['Austria', 4, 1, 5]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>['Georgia', 4, 0, 4]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
+          <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -7846,23 +8226,23 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E102" t="n">
         <v>2</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7877,7 +8257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>['Slovenia', 4, 0, 2]</t>
+          <t>['Slovenia', 2, 0, 2]</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7887,22 +8267,22 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>['Slovakia', 4, 0, 3]</t>
+          <t>['Slovakia', 3, 0, 2]</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>['Turkey', 4, -1, 4]</t>
+          <t>['Czech Republic', 1, -1, 2]</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Turkey']</t>
+          <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>['Hungary', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7914,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="Q102" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103">
@@ -7923,75 +8303,999 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>['Slovenia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-06-25</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Group C</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>['Slovakia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Slovenia']</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>['Slovakia', 5, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Netherlands', 'Slovenia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 2]</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>24</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>['Ukraine', 4, -2, 2]</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Ukraine', 'Slovenia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>37</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Group E</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 1, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="D103" t="n">
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 3, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Czech Republic']</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 2, -1, 2]</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>51</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, -1, 3]</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Georgia', 'Slovenia']</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>57</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>['Georgia', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['Georgia', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>66</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Group F</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>['Hungary', 3, -3, 2]</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>['Croatia', 2, -3, 3]</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>['Netherlands', 4, 0, 4]</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>['Slovakia', 4, 0, 3]</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>['Turkey', 4, -1, 4]</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Slovakia', 'Turkey', 'Slovenia']</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
         <v>94</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E115" t="n">
         <v>2</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>Group F</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['Hungary', 3, -3, 2]</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>['Croatia', 2, -3, 3]</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>['Slovenia', 4, 0, 2]</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>['Slovenia', 3, 0, 2]</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>['Netherlands', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>['Slovakia', 4, 0, 3]</t>
         </is>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L115" t="inlineStr">
         <is>
           <t>['Georgia', 4, 0, 4]</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>['Netherlands', 'Georgia', 'Slovakia', 'Slovenia']</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="N115" t="inlineStr">
         <is>
           <t>['Hungary', 'Croatia']</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Georgia']</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>16</v>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['Georgia', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -8441,7 +8441,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Slovenia']</t>
+          <t>['Slovenia', 'Slovakia']</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P115" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -8441,7 +8441,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Slovakia']</t>
+          <t>['Slovakia', 'Slovenia']</t>
         </is>
       </c>
       <c r="P104" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Georgia']</t>
+          <t>['Georgia', 'Netherlands']</t>
         </is>
       </c>
       <c r="P115" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>['Georgia', 'Netherlands']</t>
+          <t>['Netherlands', 'Georgia']</t>
         </is>
       </c>
       <c r="P115" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Portugal']</t>
+          <t>['Portugal', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="P24" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Portugal']</t>
         </is>
       </c>
       <c r="P24" t="n">

--- a/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
+++ b/data/out/wiki/men/fifa/eu/third_teams_df_eu_fifa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="152">
   <si>
     <t>year</t>
   </si>
@@ -145,15 +145,9 @@
     <t>['Hungary', 3, -3, 2]</t>
   </si>
   <si>
-    <t>['Slovakia', 3, 0, 3]</t>
-  </si>
-  <si>
     <t>['Slovakia', 4, 0, 3]</t>
   </si>
   <si>
-    <t>['Russia', 3, -2, 1]</t>
-  </si>
-  <si>
     <t>['Russia', 4, -2, 1]</t>
   </si>
   <si>
@@ -172,9 +166,6 @@
     <t>['Finland', 3, -2, 1]</t>
   </si>
   <si>
-    <t>['Albania', 1, -1, 3]</t>
-  </si>
-  <si>
     <t>['Albania', 2, -1, 3]</t>
   </si>
   <si>
@@ -187,33 +178,21 @@
     <t>['Croatia', 2, -3, 3]</t>
   </si>
   <si>
-    <t>['Northern Ireland', 3, 1, 2]</t>
-  </si>
-  <si>
     <t>['Northern Ireland', 4, 1, 2]</t>
   </si>
   <si>
     <t>['Northern Ireland', 3, 0, 2]</t>
   </si>
   <si>
-    <t>['Austria', 3, 0, 3]</t>
-  </si>
-  <si>
     <t>['Austria', 4, 0, 3]</t>
   </si>
   <si>
     <t>['Ukraine', 3, -1, 4]</t>
   </si>
   <si>
-    <t>['Slovenia', 2, 0, 2]</t>
-  </si>
-  <si>
     <t>['Slovenia', 3, 0, 2]</t>
   </si>
   <si>
-    <t>['Czech Republic', 1, -1, 2]</t>
-  </si>
-  <si>
     <t>['Czech Republic', 2, -1, 2]</t>
   </si>
   <si>
@@ -223,9 +202,6 @@
     <t>['Turkey', 3, -2, 2]</t>
   </si>
   <si>
-    <t>['Croatia', 1, -1, 1]</t>
-  </si>
-  <si>
     <t>['Croatia', 2, -1, 1]</t>
   </si>
   <si>
@@ -241,7 +217,7 @@
     <t>['Czech Republic', 4, 1, 3]</t>
   </si>
   <si>
-    <t>['Austria', 3, 1, 3]</t>
+    <t>['Austria', 4, 1, 3]</t>
   </si>
   <si>
     <t>['Netherlands', 4, 0, 2]</t>
@@ -259,9 +235,6 @@
     <t>['Netherlands', 4, 0, 4]</t>
   </si>
   <si>
-    <t>['Sweden', 1, -1, 1]</t>
-  </si>
-  <si>
     <t>['Sweden', 2, -1, 1]</t>
   </si>
   <si>
@@ -271,9 +244,6 @@
     <t>['Ireland', 4, -2, 2]</t>
   </si>
   <si>
-    <t>['Spain', 2, 0, 1]</t>
-  </si>
-  <si>
     <t>['Spain', 3, 0, 1]</t>
   </si>
   <si>
@@ -292,18 +262,12 @@
     <t>['Slovakia', 3, -5, 2]</t>
   </si>
   <si>
-    <t>['Slovakia', 3, 0, 2]</t>
-  </si>
-  <si>
     <t>['Slovakia', 4, 0, 2]</t>
   </si>
   <si>
     <t>['Ukraine', 4, -2, 2]</t>
   </si>
   <si>
-    <t>['Portugal', 2, 0, 1]</t>
-  </si>
-  <si>
     <t>['Portugal', 3, 0, 1]</t>
   </si>
   <si>
@@ -328,7 +292,7 @@
     <t>['Portugal', 3, 0, 4]</t>
   </si>
   <si>
-    <t>['Germany', 3, 1, 4]</t>
+    <t>['Germany', 4, 1, 4]</t>
   </si>
   <si>
     <t>['Hungary', 4, -2, 2]</t>
@@ -358,21 +322,18 @@
     <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Romania']</t>
   </si>
   <si>
-    <t>['Northern Ireland', 'Slovakia', 'Albania', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Northern Ireland', 'Albania', 'Portugal']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Northern Ireland', 'Albania', 'Turkey']</t>
+    <t>['Northern Ireland', 'Slovakia', 'Portugal', 'Albania']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Albania']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
   </si>
   <si>
     <t>['Slovakia', 'Northern Ireland', 'Turkey', 'Albania']</t>
   </si>
   <si>
-    <t>['Slovakia', 'Northern Ireland', 'Portugal', 'Turkey']</t>
-  </si>
-  <si>
     <t>['Slovakia', 'Portugal', 'Northern Ireland', 'Turkey']</t>
   </si>
   <si>
@@ -385,34 +346,25 @@
     <t>['Germany', 'Austria', 'Russia', 'Spain']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Germany', 'Austria', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Switzerland', 'Germany', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Germany', 'Ukraine', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Russia', 'Germany', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Germany', 'Ukraine', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Germany', 'Denmark', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Switzerland', 'Germany', 'Ukraine', 'Finland']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Switzerland', 'Germany', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'Switzerland', 'Germany', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'Switzerland', 'Germany', 'Spain']</t>
+    <t>['Germany', 'Austria', 'Switzerland', 'Russia']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Switzerland', 'Russia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Switzerland', 'Spain', 'Ukraine']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Switzerland', 'Denmark', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Croatia', 'Switzerland', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Czech Republic', 'Switzerland', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
   </si>
   <si>
     <t>['Czech Republic', 'Switzerland', 'Hungary', 'Ukraine']</t>
@@ -421,22 +373,13 @@
     <t>['Czech Republic', 'Switzerland', 'Portugal', 'Ukraine']</t>
   </si>
   <si>
-    <t>['Germany', 'Czech Republic', 'Switzerland', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Slovakia', 'Slovenia', 'Scotland']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Slovakia', 'Hungary', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['Austria', 'Slovakia', 'Italy', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Slovakia', 'Hungary', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Slovenia', 'Slovakia', 'Hungary']</t>
+    <t>['Austria', 'Slovakia', 'Slovenia', 'Albania']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Slovakia', 'Slovenia', 'Hungary']</t>
+  </si>
+  <si>
+    <t>['Austria', 'Slovakia', 'Slovenia', 'Italy']</t>
   </si>
   <si>
     <t>['Netherlands', 'Slovakia', 'Slovenia', 'Hungary']</t>
@@ -457,25 +400,37 @@
     <t>['Czech Republic', 'Sweden']</t>
   </si>
   <si>
+    <t>['Turkey', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Albania', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'Portugal']</t>
+  </si>
+  <si>
     <t>['Portugal', 'Sweden']</t>
   </si>
   <si>
-    <t>['Albania', 'Sweden']</t>
-  </si>
-  <si>
     <t>['Albania', 'Ireland']</t>
   </si>
   <si>
     <t>['Turkey', 'Albania']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Croatia']</t>
+    <t>['Croatia', 'Switzerland']</t>
   </si>
   <si>
     <t>['Spain', 'Croatia']</t>
   </si>
   <si>
-    <t>['Finland', 'Spain']</t>
+    <t>['Ukraine', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Denmark', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Finland', 'Croatia']</t>
   </si>
   <si>
     <t>['Ukraine', 'Finland']</t>
@@ -487,28 +442,31 @@
     <t>['Finland', 'Slovakia']</t>
   </si>
   <si>
+    <t>['Czech Republic', 'Scotland']</t>
+  </si>
+  <si>
     <t>['Albania', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Croatia', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Slovenia', 'Czech Republic']</t>
-  </si>
-  <si>
     <t>['Czech Republic', 'Croatia']</t>
   </si>
   <si>
+    <t>['Hungary', 'Czech Republic']</t>
+  </si>
+  <si>
     <t>['Hungary', 'Croatia']</t>
   </si>
   <si>
+    <t>['Czech Republic', 'Romania']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
     <t>['Northern Ireland', 'Portugal']</t>
   </si>
   <si>
-    <t>['Slovakia', 'Slovenia']</t>
+    <t>['Netherlands', 'Slovakia']</t>
   </si>
   <si>
     <t>['Georgia', 'Netherlands']</t>
@@ -954,25 +912,25 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1007,25 +965,25 @@
         <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -1057,28 +1015,28 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N4" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1110,28 +1068,28 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1163,28 +1121,28 @@
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O6" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1216,28 +1174,28 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O7" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1269,28 +1227,28 @@
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O8" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1322,28 +1280,28 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
         <v>59</v>
       </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O9" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1375,28 +1333,28 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="N10" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1428,28 +1386,28 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
         <v>59</v>
       </c>
-      <c r="J11" t="s">
-        <v>66</v>
-      </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1481,28 +1439,28 @@
         <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
         <v>59</v>
       </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1534,34 +1492,34 @@
         <v>35</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1587,34 +1545,34 @@
         <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M14" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1640,31 +1598,31 @@
         <v>35</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -1693,28 +1651,28 @@
         <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1746,28 +1704,28 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1799,34 +1757,34 @@
         <v>35</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L18" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O18" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1852,34 +1810,34 @@
         <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="O19" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1905,34 +1863,34 @@
         <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L20" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="N20" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O20" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1958,34 +1916,34 @@
         <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L21" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N21" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O21" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2011,34 +1969,34 @@
         <v>35</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="N22" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O22" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2064,34 +2022,34 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L23" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M23" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O23" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P23">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2117,34 +2075,34 @@
         <v>35</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N24" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2170,34 +2128,34 @@
         <v>35</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="N25" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O25" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2223,34 +2181,34 @@
         <v>35</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L26" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="N26" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O26" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2276,34 +2234,34 @@
         <v>35</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K27" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="N27" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="O27" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2329,34 +2287,34 @@
         <v>35</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K28" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="N28" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="O28" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2382,34 +2340,34 @@
         <v>35</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L29" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="N29" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="O29" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2435,28 +2393,28 @@
         <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L30" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="O30" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2488,28 +2446,28 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N31" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O31" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -2541,28 +2499,28 @@
         <v>38</v>
       </c>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N32" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O32" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2594,28 +2552,28 @@
         <v>38</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N33" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O33" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2647,28 +2605,28 @@
         <v>39</v>
       </c>
       <c r="H34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L34" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N34" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O34" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2700,28 +2658,28 @@
         <v>40</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L35" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O35" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2753,28 +2711,28 @@
         <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L36" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M36" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N36" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="O36" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2806,28 +2764,28 @@
         <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I37" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
         <v>62</v>
       </c>
-      <c r="J37" t="s">
-        <v>69</v>
-      </c>
       <c r="K37" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M37" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N37" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O37" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -2859,28 +2817,28 @@
         <v>40</v>
       </c>
       <c r="H38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
         <v>62</v>
       </c>
-      <c r="J38" t="s">
-        <v>69</v>
-      </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L38" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M38" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O38" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2912,28 +2870,28 @@
         <v>40</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
         <v>62</v>
       </c>
-      <c r="J39" t="s">
-        <v>69</v>
-      </c>
       <c r="K39" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L39" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M39" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N39" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O39" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2965,28 +2923,28 @@
         <v>40</v>
       </c>
       <c r="H40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
         <v>62</v>
       </c>
-      <c r="J40" t="s">
-        <v>69</v>
-      </c>
       <c r="K40" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L40" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M40" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N40" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O40" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -3018,28 +2976,28 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
         <v>62</v>
       </c>
-      <c r="J41" t="s">
-        <v>69</v>
-      </c>
       <c r="K41" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M41" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="N41" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O41" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -3071,28 +3029,28 @@
         <v>40</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
         <v>62</v>
       </c>
-      <c r="J42" t="s">
-        <v>69</v>
-      </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L42" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M42" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="N42" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="O42" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -3124,34 +3082,34 @@
         <v>40</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
         <v>62</v>
       </c>
-      <c r="J43" t="s">
-        <v>69</v>
-      </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L43" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M43" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="N43" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="O43" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3177,34 +3135,34 @@
         <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" t="s">
         <v>62</v>
       </c>
-      <c r="J44" t="s">
-        <v>69</v>
-      </c>
       <c r="K44" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L44" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M44" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="N44" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="O44" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3230,34 +3188,34 @@
         <v>40</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" t="s">
         <v>62</v>
       </c>
-      <c r="J45" t="s">
-        <v>69</v>
-      </c>
       <c r="K45" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M45" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O45" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3283,34 +3241,34 @@
         <v>40</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" t="s">
         <v>62</v>
       </c>
-      <c r="J46" t="s">
-        <v>69</v>
-      </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L46" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M46" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N46" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O46" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3336,34 +3294,34 @@
         <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" t="s">
         <v>62</v>
       </c>
-      <c r="J47" t="s">
-        <v>69</v>
-      </c>
       <c r="K47" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L47" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M47" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N47" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O47" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3389,34 +3347,34 @@
         <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" t="s">
         <v>62</v>
       </c>
-      <c r="J48" t="s">
-        <v>69</v>
-      </c>
       <c r="K48" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L48" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M48" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N48" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O48" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3442,34 +3400,34 @@
         <v>40</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" t="s">
         <v>62</v>
       </c>
-      <c r="J49" t="s">
-        <v>70</v>
-      </c>
       <c r="K49" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L49" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M49" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N49" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O49" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3495,34 +3453,34 @@
         <v>40</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" t="s">
         <v>62</v>
       </c>
-      <c r="J50" t="s">
-        <v>70</v>
-      </c>
       <c r="K50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L50" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M50" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N50" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O50" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3548,34 +3506,34 @@
         <v>40</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I51" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K51" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L51" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M51" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="N51" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O51" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3601,34 +3559,34 @@
         <v>40</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J52" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L52" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M52" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="N52" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="O52" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P52">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3654,34 +3612,34 @@
         <v>40</v>
       </c>
       <c r="H53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I53" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J53" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K53" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L53" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M53" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="N53" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O53" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P53">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3707,34 +3665,34 @@
         <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J54" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K54" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="L54" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M54" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="N54" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O54" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P54">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3760,31 +3718,31 @@
         <v>40</v>
       </c>
       <c r="H55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I55" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J55" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K55" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L55" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M55" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="N55" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O55" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -3813,28 +3771,28 @@
         <v>40</v>
       </c>
       <c r="H56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I56" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J56" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K56" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L56" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M56" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="N56" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="O56" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3866,28 +3824,28 @@
         <v>40</v>
       </c>
       <c r="H57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I57" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J57" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K57" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L57" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M57" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N57" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="O57" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -3919,28 +3877,28 @@
         <v>40</v>
       </c>
       <c r="H58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J58" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K58" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L58" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M58" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N58" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="O58" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3972,28 +3930,28 @@
         <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J59" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K59" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L59" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M59" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O59" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -4025,28 +3983,28 @@
         <v>40</v>
       </c>
       <c r="H60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I60" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J60" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K60" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L60" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M60" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N60" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O60" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -4078,28 +4036,28 @@
         <v>40</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I61" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J61" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K61" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="L61" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M61" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N61" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O61" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -4131,28 +4089,28 @@
         <v>40</v>
       </c>
       <c r="H62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I62" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J62" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K62" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L62" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M62" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N62" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O62" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -4184,28 +4142,28 @@
         <v>40</v>
       </c>
       <c r="H63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I63" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K63" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L63" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M63" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N63" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O63" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -4237,28 +4195,28 @@
         <v>40</v>
       </c>
       <c r="H64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I64" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J64" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L64" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M64" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N64" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O64" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -4290,28 +4248,28 @@
         <v>40</v>
       </c>
       <c r="H65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I65" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J65" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K65" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L65" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M65" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N65" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O65" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -4343,28 +4301,28 @@
         <v>40</v>
       </c>
       <c r="H66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I66" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J66" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L66" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M66" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="N66" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O66" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4396,28 +4354,28 @@
         <v>40</v>
       </c>
       <c r="H67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I67" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J67" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K67" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L67" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M67" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N67" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O67" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -4449,28 +4407,28 @@
         <v>40</v>
       </c>
       <c r="H68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I68" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J68" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K68" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L68" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M68" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N68" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O68" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4502,28 +4460,28 @@
         <v>40</v>
       </c>
       <c r="H69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I69" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J69" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K69" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L69" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M69" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N69" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O69" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4555,28 +4513,28 @@
         <v>40</v>
       </c>
       <c r="H70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I70" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J70" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K70" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L70" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="M70" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="N70" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O70" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -4608,28 +4566,28 @@
         <v>40</v>
       </c>
       <c r="H71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I71" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J71" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K71" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L71" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="M71" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N71" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O71" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -4661,28 +4619,28 @@
         <v>40</v>
       </c>
       <c r="H72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I72" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J72" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K72" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L72" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M72" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="N72" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O72" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -4714,28 +4672,28 @@
         <v>40</v>
       </c>
       <c r="H73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I73" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J73" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K73" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L73" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="M73" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="N73" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O73" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -4767,28 +4725,28 @@
         <v>40</v>
       </c>
       <c r="H74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I74" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J74" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K74" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="L74" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M74" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="N74" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="O74" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -4820,28 +4778,28 @@
         <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I75" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K75" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L75" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M75" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="N75" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O75" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4873,28 +4831,28 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J76" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K76" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L76" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M76" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="N76" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O76" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4926,28 +4884,28 @@
         <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I77" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J77" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K77" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L77" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M77" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="N77" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="O77" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4979,28 +4937,28 @@
         <v>42</v>
       </c>
       <c r="H78" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I78" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K78" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L78" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M78" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N78" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O78" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -5032,28 +4990,28 @@
         <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I79" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J79" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K79" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L79" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M79" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N79" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="O79" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -5085,28 +5043,28 @@
         <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I80" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J80" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K80" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L80" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M80" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N80" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O80" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -5138,28 +5096,28 @@
         <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J81" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K81" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L81" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M81" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="N81" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="O81" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P81">
         <v>1</v>
@@ -5191,28 +5149,28 @@
         <v>42</v>
       </c>
       <c r="H82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I82" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J82" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K82" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L82" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M82" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N82" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O82" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -5244,28 +5202,28 @@
         <v>42</v>
       </c>
       <c r="H83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J83" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K83" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M83" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N83" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O83" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5297,28 +5255,28 @@
         <v>42</v>
       </c>
       <c r="H84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I84" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J84" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K84" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L84" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M84" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="N84" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O84" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="P84">
         <v>1</v>
@@ -5350,28 +5308,28 @@
         <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I85" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J85" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K85" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L85" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M85" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N85" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O85" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -5403,28 +5361,28 @@
         <v>42</v>
       </c>
       <c r="H86" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I86" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J86" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K86" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L86" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M86" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N86" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O86" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -5456,28 +5414,28 @@
         <v>42</v>
       </c>
       <c r="H87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I87" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J87" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K87" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L87" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M87" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="N87" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O87" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -5509,28 +5467,28 @@
         <v>42</v>
       </c>
       <c r="H88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I88" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J88" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K88" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L88" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M88" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N88" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O88" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P88">
         <v>1</v>
@@ -5562,28 +5520,28 @@
         <v>42</v>
       </c>
       <c r="H89" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I89" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J89" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K89" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L89" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M89" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="N89" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O89" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5615,28 +5573,28 @@
         <v>42</v>
       </c>
       <c r="H90" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I90" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J90" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K90" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L90" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M90" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="N90" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O90" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -5668,28 +5626,28 @@
         <v>42</v>
       </c>
       <c r="H91" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I91" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J91" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K91" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="L91" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M91" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="N91" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O91" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5721,28 +5679,28 @@
         <v>42</v>
       </c>
       <c r="H92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I92" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J92" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K92" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="L92" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M92" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="N92" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O92" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5774,28 +5732,28 @@
         <v>42</v>
       </c>
       <c r="H93" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I93" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J93" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K93" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L93" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M93" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="N93" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O93" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -5827,28 +5785,28 @@
         <v>42</v>
       </c>
       <c r="H94" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I94" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J94" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L94" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M94" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="N94" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O94" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P94">
         <v>1</v>
@@ -5880,28 +5838,28 @@
         <v>42</v>
       </c>
       <c r="H95" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I95" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J95" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L95" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M95" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="N95" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="O95" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5933,28 +5891,28 @@
         <v>42</v>
       </c>
       <c r="H96" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I96" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L96" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M96" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="N96" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O96" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -5986,28 +5944,28 @@
         <v>42</v>
       </c>
       <c r="H97" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I97" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J97" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L97" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M97" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="N97" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O97" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -6039,28 +5997,28 @@
         <v>42</v>
       </c>
       <c r="H98" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I98" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J98" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L98" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="M98" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="N98" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O98" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -6092,28 +6050,28 @@
         <v>42</v>
       </c>
       <c r="H99" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I99" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J99" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L99" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="M99" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="N99" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O99" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="P99">
         <v>1</v>
@@ -6145,28 +6103,28 @@
         <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I100" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J100" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L100" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="M100" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="N100" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O100" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="P100">
         <v>1</v>
